--- a/src/test/resources/files/staffList_test.xlsx
+++ b/src/test/resources/files/staffList_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\med_salary_project\med_salary\src\test\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\prog.academy\final_project\medsalary\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC2466-B80F-4B3C-9A8D-608CF8F98339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -316,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#0"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
@@ -412,7 +411,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,21 +688,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="88.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
@@ -1543,8 +1542,8 @@
       <c r="W17" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:W10" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W16">
+  <autoFilter ref="A6:W10">
+    <sortState ref="A7:W16">
       <sortCondition ref="F6:F10"/>
     </sortState>
   </autoFilter>
@@ -1558,7 +1557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
